--- a/GP05MOAS-GL525/Omaha_Cal_Info_GP05MOAS-GL525_00001.xlsx
+++ b/GP05MOAS-GL525/Omaha_Cal_Info_GP05MOAS-GL525_00001.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\Ingest sheets\ingestion-csvs\GP05MOAS-GL525\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="10140" windowWidth="29860" windowHeight="10600" tabRatio="377"/>
+    <workbookView xWindow="4260" yWindow="10140" windowWidth="29865" windowHeight="10605" tabRatio="377" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -30,7 +35,7 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$A$1:$J$94</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$F$379</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -40,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>Ref Des</t>
   </si>
@@ -82,9 +87,6 @@
   </si>
   <si>
     <t>Deployment Number</t>
-  </si>
-  <si>
-    <t>1000 m</t>
   </si>
   <si>
     <t>Mooring Serial Number</t>
@@ -598,6 +600,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -892,21 +897,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" customWidth="1"/>
-    <col min="2" max="2" width="18.5" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="8" width="19.33203125" customWidth="1"/>
-    <col min="9" max="10" width="11.1640625" customWidth="1"/>
-    <col min="11" max="11" width="35.5" customWidth="1"/>
-    <col min="12" max="12" width="19.33203125" customWidth="1"/>
-    <col min="13" max="13" width="19.6640625" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="8" width="19.28515625" customWidth="1"/>
+    <col min="9" max="10" width="11.140625" customWidth="1"/>
+    <col min="11" max="11" width="35.42578125" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30">
+    <row r="1" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -941,9 +948,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="27" customFormat="1" ht="15">
+    <row r="2" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="6">
         <v>525</v>
@@ -959,16 +966,16 @@
       </c>
       <c r="F2" s="28"/>
       <c r="G2" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="29" t="s">
-        <v>14</v>
+      <c r="I2" s="29">
+        <v>1000</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K2" s="25"/>
       <c r="L2" s="26">
@@ -995,25 +1002,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.5" customWidth="1"/>
-    <col min="6" max="6" width="28.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" customWidth="1"/>
+    <col min="6" max="6" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15">
+    <row r="1" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>13</v>
@@ -1028,9 +1037,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="4" customFormat="1">
+    <row r="2" spans="1:12" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="21">
         <v>525</v>
@@ -1042,18 +1051,18 @@
         <v>3579</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="20">
         <v>140</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="4" customFormat="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="22">
         <v>525</v>
@@ -1065,18 +1074,18 @@
         <v>3579</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="20">
         <v>700</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="4" customFormat="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="22">
         <v>525</v>
@@ -1088,18 +1097,18 @@
         <v>3579</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" s="24">
         <v>1.0960000000000001</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="4" customFormat="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="22">
         <v>525</v>
@@ -1111,16 +1120,16 @@
         <v>3579</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F5" s="20">
         <v>3.9E-2</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="4" customFormat="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="22"/>
       <c r="C6" s="12"/>
@@ -1134,9 +1143,9 @@
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
     </row>
-    <row r="7" spans="1:12" s="4" customFormat="1">
+    <row r="7" spans="1:12" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="23">
         <v>525</v>
@@ -1150,7 +1159,7 @@
       <c r="E7" s="10"/>
       <c r="F7" s="11"/>
       <c r="G7" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
@@ -1158,7 +1167,7 @@
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
     </row>
-    <row r="8" spans="1:12" s="4" customFormat="1">
+    <row r="8" spans="1:12" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="22"/>
       <c r="C8" s="12"/>
@@ -1172,9 +1181,9 @@
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
     </row>
-    <row r="9" spans="1:12" s="4" customFormat="1">
+    <row r="9" spans="1:12" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="23">
         <v>525</v>
@@ -1188,7 +1197,7 @@
       <c r="E9" s="10"/>
       <c r="F9" s="11"/>
       <c r="G9" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
@@ -1196,7 +1205,7 @@
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
     </row>
-    <row r="10" spans="1:12" s="4" customFormat="1">
+    <row r="10" spans="1:12" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="22"/>
       <c r="C10" s="12"/>
@@ -1210,9 +1219,9 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
     </row>
-    <row r="11" spans="1:12" s="4" customFormat="1">
+    <row r="11" spans="1:12" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="23">
         <v>525</v>
@@ -1226,7 +1235,7 @@
       <c r="E11" s="10"/>
       <c r="F11" s="11"/>
       <c r="G11" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
@@ -1234,7 +1243,7 @@
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
     </row>
-    <row r="12" spans="1:12" s="4" customFormat="1">
+    <row r="12" spans="1:12" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
